--- a/opioid_trends/data/overdose_by_geography_and_source2025.xlsx
+++ b/opioid_trends/data/overdose_by_geography_and_source2025.xlsx
@@ -1343,6 +1343,9 @@
       <c r="C47">
         <v>73690</v>
       </c>
+      <c r="D47">
+        <v>22.34889453387438</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>2025</t>
